--- a/Team-Data/2020-21/12-25-2020-21.xlsx
+++ b/Team-Data/2020-21/12-25-2020-21.xlsx
@@ -811,10 +811,10 @@
         <v>20</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -826,34 +826,34 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS2" t="n">
         <v>8</v>
@@ -868,19 +868,19 @@
         <v>27</v>
       </c>
       <c r="AW2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ2" t="n">
         <v>26</v>
       </c>
       <c r="BA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB2" t="n">
         <v>3</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -915,160 +915,160 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>42.5</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>99.5</v>
+        <v>101</v>
       </c>
       <c r="K3" t="n">
-        <v>0.427</v>
+        <v>0.475</v>
       </c>
       <c r="L3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3" t="n">
-        <v>33.5</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>0.388</v>
+        <v>0.45</v>
       </c>
       <c r="O3" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7</v>
+        <v>0.727</v>
       </c>
       <c r="R3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
         <v>27</v>
       </c>
       <c r="T3" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U3" t="n">
         <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.5</v>
+        <v>122</v>
       </c>
       <c r="AC3" t="n">
-        <v>-13.5</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="n">
         <v>2</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AS3" t="n">
         <v>27</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AU3" t="n">
         <v>19</v>
       </c>
       <c r="AV3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="BC3" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1112,67 +1112,67 @@
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="J4" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K4" t="n">
-        <v>0.494</v>
+        <v>0.457</v>
       </c>
       <c r="L4" t="n">
         <v>15</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>0.469</v>
+        <v>0.429</v>
       </c>
       <c r="O4" t="n">
         <v>26</v>
       </c>
       <c r="P4" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.825</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R4" t="n">
+        <v>13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>57</v>
+      </c>
+      <c r="U4" t="n">
+        <v>24</v>
+      </c>
+      <c r="V4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W4" t="n">
         <v>11</v>
       </c>
-      <c r="S4" t="n">
-        <v>39</v>
-      </c>
-      <c r="T4" t="n">
-        <v>50</v>
-      </c>
-      <c r="U4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>18</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
         <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1190,22 +1190,22 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>5</v>
       </c>
       <c r="AM4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>1</v>
@@ -1214,40 +1214,40 @@
         <v>1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX4" t="n">
         <v>7</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2</v>
       </c>
       <c r="AY4" t="n">
         <v>16</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC4" t="n">
         <v>1</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -1357,28 +1357,28 @@
         <v>-7</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AG5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
       <c r="AK5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL5" t="n">
         <v>4</v>
@@ -1387,19 +1387,19 @@
         <v>3</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
         <v>25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS5" t="n">
         <v>28</v>
@@ -1408,31 +1408,31 @@
         <v>28</v>
       </c>
       <c r="AU5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
         <v>16</v>
       </c>
       <c r="AY5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
         <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -1539,16 +1539,16 @@
         <v>-20</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
@@ -1557,13 +1557,13 @@
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>9</v>
@@ -1575,16 +1575,16 @@
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT6" t="n">
         <v>25</v>
@@ -1593,25 +1593,25 @@
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC6" t="n">
         <v>26</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -1721,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
         <v>1</v>
@@ -1736,67 +1736,67 @@
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>14</v>
       </c>
-      <c r="AR7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>12</v>
-      </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>7</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -1825,13 +1825,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1840,145 +1840,145 @@
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="n">
-        <v>0.458</v>
+        <v>0.424</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>34.5</v>
+        <v>37</v>
       </c>
       <c r="N8" t="n">
-        <v>0.319</v>
+        <v>0.243</v>
       </c>
       <c r="O8" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="P8" t="n">
         <v>26</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.788</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="S8" t="n">
-        <v>28.5</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="U8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="V8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.5</v>
+        <v>102</v>
       </c>
       <c r="AC8" t="n">
-        <v>-13.5</v>
+        <v>-4</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
       </c>
       <c r="AI8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>21</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>22</v>
-      </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
         <v>12</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>14</v>
       </c>
       <c r="AQ8" t="n">
         <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>28</v>
       </c>
       <c r="AV8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>28</v>
       </c>
       <c r="AY8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC8" t="n">
         <v>17</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>18</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>22</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -2007,160 +2007,160 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>50.5</v>
+        <v>53</v>
       </c>
       <c r="I9" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J9" t="n">
-        <v>89.5</v>
+        <v>98</v>
       </c>
       <c r="K9" t="n">
-        <v>0.469</v>
+        <v>0.48</v>
       </c>
       <c r="L9" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="N9" t="n">
-        <v>0.292</v>
+        <v>0.276</v>
       </c>
       <c r="O9" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="P9" t="n">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.782</v>
+        <v>0.833</v>
       </c>
       <c r="R9" t="n">
         <v>10</v>
       </c>
       <c r="S9" t="n">
+        <v>36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>46</v>
+      </c>
+      <c r="U9" t="n">
+        <v>28</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA9" t="n">
         <v>29</v>
       </c>
-      <c r="T9" t="n">
-        <v>39</v>
-      </c>
-      <c r="U9" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="AB9" t="n">
+        <v>122</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS9" t="n">
         <v>14</v>
       </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>115</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AT9" t="n">
         <v>12</v>
       </c>
-      <c r="AK9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>22</v>
-      </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV9" t="n">
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC9" t="n">
         <v>16</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -2267,31 +2267,31 @@
         <v>-10</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>9</v>
@@ -2315,22 +2315,22 @@
         <v>9</v>
       </c>
       <c r="AT10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY10" t="n">
         <v>14</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>9</v>
@@ -2342,7 +2342,7 @@
         <v>25</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -2371,13 +2371,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2386,85 +2386,85 @@
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="J11" t="n">
         <v>99</v>
       </c>
       <c r="K11" t="n">
-        <v>0.359</v>
+        <v>0.374</v>
       </c>
       <c r="L11" t="n">
         <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N11" t="n">
-        <v>0.256</v>
+        <v>0.303</v>
       </c>
       <c r="O11" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="R11" t="n">
+        <v>13</v>
+      </c>
+      <c r="S11" t="n">
+        <v>34</v>
+      </c>
+      <c r="T11" t="n">
+        <v>47</v>
+      </c>
+      <c r="U11" t="n">
+        <v>26</v>
+      </c>
+      <c r="V11" t="n">
         <v>18</v>
       </c>
-      <c r="P11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>45</v>
-      </c>
-      <c r="U11" t="n">
-        <v>20</v>
-      </c>
-      <c r="V11" t="n">
-        <v>14.5</v>
-      </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
         <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
         <v>99</v>
       </c>
       <c r="AC11" t="n">
-        <v>-32.5</v>
+        <v>-26</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2473,52 +2473,52 @@
         <v>28</v>
       </c>
       <c r="AL11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY11" t="n">
         <v>19</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>16</v>
       </c>
       <c r="AZ11" t="n">
         <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
         <v>27</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -2631,10 +2631,10 @@
         <v>14</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
         <v>1</v>
@@ -2646,19 +2646,19 @@
         <v>3</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN12" t="n">
         <v>26</v>
@@ -2667,46 +2667,46 @@
         <v>9</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>20</v>
       </c>
       <c r="AR12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>8</v>
       </c>
       <c r="AW12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>19</v>
       </c>
-      <c r="AX12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>21</v>
-      </c>
       <c r="BA12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -2735,10 +2735,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2750,67 +2750,67 @@
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>42.5</v>
+        <v>44</v>
       </c>
       <c r="J13" t="n">
-        <v>83.5</v>
+        <v>93</v>
       </c>
       <c r="K13" t="n">
-        <v>0.509</v>
+        <v>0.473</v>
       </c>
       <c r="L13" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="M13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>0.423</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P13" t="n">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.791</v>
+        <v>0.737</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S13" t="n">
         <v>29</v>
       </c>
       <c r="T13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
         <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>118.5</v>
+        <v>116</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2828,49 +2828,49 @@
         <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
         <v>6</v>
       </c>
-      <c r="AL13" t="n">
-        <v>3</v>
-      </c>
       <c r="AM13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU13" t="n">
         <v>22</v>
       </c>
-      <c r="AT13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
         <v>18</v>
@@ -2879,16 +2879,16 @@
         <v>2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>17</v>
       </c>
       <c r="BB13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -2917,160 +2917,160 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>44.5</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K14" t="n">
-        <v>0.517</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>29</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O14" t="n">
+        <v>24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>37</v>
+      </c>
+      <c r="T14" t="n">
+        <v>45</v>
+      </c>
+      <c r="U14" t="n">
+        <v>22</v>
+      </c>
+      <c r="V14" t="n">
+        <v>19</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>109</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR14" t="n">
         <v>14</v>
       </c>
-      <c r="M14" t="n">
-        <v>34</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="O14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="R14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>49</v>
-      </c>
-      <c r="U14" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="AS14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB14" t="n">
         <v>18</v>
       </c>
-      <c r="W14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>6</v>
-      </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -3177,82 +3177,82 @@
         <v>-12</v>
       </c>
       <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN15" t="n">
         <v>11</v>
       </c>
-      <c r="AE15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AO15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR15" t="n">
         <v>26</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
       </c>
       <c r="AT15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW15" t="n">
         <v>16</v>
       </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>19</v>
-      </c>
       <c r="AX15" t="n">
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>9</v>
       </c>
       <c r="BA15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC15" t="n">
         <v>23</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -3281,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J16" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
         <v>0.506</v>
       </c>
       <c r="L16" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>28.5</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>0.404</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.833</v>
+        <v>0.842</v>
       </c>
       <c r="R16" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="S16" t="n">
-        <v>33.5</v>
+        <v>36</v>
       </c>
       <c r="T16" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V16" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
@@ -3344,97 +3344,97 @@
         <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.5</v>
+        <v>-6</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>3</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB16" t="n">
         <v>19</v>
       </c>
-      <c r="BA16" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>17</v>
-      </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -3463,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17" t="n">
         <v>90</v>
       </c>
       <c r="K17" t="n">
-        <v>0.533</v>
+        <v>0.511</v>
       </c>
       <c r="L17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M17" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>0.479</v>
+        <v>0.4</v>
       </c>
       <c r="O17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="P17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="R17" t="n">
         <v>11</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T17" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y17" t="n">
         <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>129.5</v>
+        <v>121</v>
       </c>
       <c r="AC17" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AK17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV17" t="n">
         <v>13</v>
       </c>
-      <c r="AH17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AW17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB17" t="n">
         <v>7</v>
       </c>
-      <c r="AS17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>2</v>
-      </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -3723,10 +3723,10 @@
         <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
         <v>1</v>
@@ -3738,19 +3738,19 @@
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -3759,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ18" t="n">
         <v>2</v>
@@ -3768,25 +3768,25 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU18" t="n">
         <v>13</v>
       </c>
-      <c r="AT18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU18" t="n">
+      <c r="AV18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX18" t="n">
         <v>14</v>
       </c>
-      <c r="AV18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>12</v>
-      </c>
       <c r="AY18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ18" t="n">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
         <v>7</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -3827,160 +3827,160 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>36.5</v>
+        <v>42</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>0.462</v>
+        <v>0.525</v>
       </c>
       <c r="L19" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="M19" t="n">
-        <v>38.5</v>
+        <v>42</v>
       </c>
       <c r="N19" t="n">
-        <v>0.377</v>
+        <v>0.452</v>
       </c>
       <c r="O19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P19" t="n">
-        <v>26.5</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.679</v>
+        <v>0.5</v>
       </c>
       <c r="R19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="S19" t="n">
-        <v>33.5</v>
+        <v>37</v>
       </c>
       <c r="T19" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U19" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="V19" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W19" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.5</v>
+        <v>113</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
         <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AJ19" t="n">
         <v>26</v>
       </c>
       <c r="AK19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP19" t="n">
         <v>17</v>
       </c>
-      <c r="AL19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AQ19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX19" t="n">
         <v>7</v>
       </c>
-      <c r="AN19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AY19" t="n">
         <v>14</v>
       </c>
-      <c r="AP19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY19" t="n">
+      <c r="AZ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA19" t="n">
         <v>12</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>11</v>
-      </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="BC19" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -4087,16 +4087,16 @@
         <v>-14</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>3</v>
@@ -4105,43 +4105,43 @@
         <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
         <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>17</v>
       </c>
-      <c r="AP20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>19</v>
-      </c>
       <c r="AR20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW20" t="n">
         <v>11</v>
@@ -4156,10 +4156,10 @@
         <v>25</v>
       </c>
       <c r="BA20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -4269,10 +4269,10 @@
         <v>6</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -4287,37 +4287,37 @@
         <v>14</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
         <v>19</v>
@@ -4329,22 +4329,22 @@
         <v>1</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
         <v>8</v>
       </c>
       <c r="BA21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
         <v>14</v>
       </c>
       <c r="BC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -4451,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4466,67 +4466,67 @@
         <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK22" t="n">
         <v>16</v>
       </c>
-      <c r="AK22" t="n">
-        <v>15</v>
-      </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS22" t="n">
         <v>9</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>17</v>
       </c>
       <c r="AW22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
         <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB22" t="n">
         <v>14</v>
       </c>
       <c r="BC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -4633,61 +4633,61 @@
         <v>4</v>
       </c>
       <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK23" t="n">
         <v>11</v>
       </c>
-      <c r="AE23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>13</v>
-      </c>
       <c r="AL23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>21</v>
       </c>
       <c r="AR23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS23" t="n">
         <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
@@ -4702,13 +4702,13 @@
         <v>23</v>
       </c>
       <c r="BA23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -4815,16 +4815,16 @@
         <v>-20</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>3</v>
@@ -4833,37 +4833,37 @@
         <v>25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
         <v>27</v>
       </c>
       <c r="AL24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN24" t="n">
         <v>13</v>
       </c>
-      <c r="AM24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>16</v>
-      </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>19</v>
@@ -4872,16 +4872,16 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>27</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -4997,10 +4997,10 @@
         <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>1</v>
@@ -5021,13 +5021,13 @@
         <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>3</v>
@@ -5042,19 +5042,19 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
         <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX25" t="n">
         <v>7</v>
@@ -5072,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -5179,10 +5179,10 @@
         <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>1</v>
@@ -5197,40 +5197,40 @@
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS26" t="n">
         <v>5</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>4</v>
-      </c>
       <c r="AT26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV26" t="n">
         <v>3</v>
@@ -5242,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>17</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -5361,46 +5361,46 @@
         <v>-14</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
         <v>2</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP27" t="n">
         <v>26</v>
       </c>
-      <c r="AP27" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>20</v>
@@ -5409,28 +5409,28 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
         <v>27</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -5543,46 +5543,46 @@
         <v>20</v>
       </c>
       <c r="AD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>11</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>4</v>
@@ -5603,19 +5603,19 @@
         <v>28</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
@@ -5725,16 +5725,16 @@
         <v>-6</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5743,7 +5743,7 @@
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>18</v>
@@ -5752,34 +5752,34 @@
         <v>11</v>
       </c>
       <c r="AM29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR29" t="n">
         <v>26</v>
       </c>
-      <c r="AN29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO29" t="n">
+      <c r="AS29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT29" t="n">
         <v>20</v>
       </c>
-      <c r="AP29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>19</v>
-      </c>
       <c r="AU29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>14</v>
@@ -5788,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
         <v>23</v>
@@ -5797,10 +5797,10 @@
         <v>7</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-25-2020-21</t>
+          <t>2020-12-25</t>
         </is>
       </c>
     </row>
